--- a/docs/応用情報技術者試験_回答用紙_template1.xlsx
+++ b/docs/応用情報技術者試験_回答用紙_template1.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\作業\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2205ABE0-8939-4DE4-ACEC-FB24C6C6CB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7401E5-E9FA-4E2A-B6D5-0E7A2873B0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
     <sheet name="一覧_テクノロジ以外" sheetId="53" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一覧!$A$3:$E$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">一覧_テクノロジ以外!$A$3:$E$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一覧!$A$3:$F$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">一覧_テクノロジ以外!$A$3:$F$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -607,7 +607,35 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -917,13 +945,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -931,30 +959,32 @@
     <col min="1" max="1" width="3.125" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="48.125" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
+    <col min="4" max="4" width="18" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" thickBot="1">
+    <row r="1" spans="1:8" ht="19.5" thickBot="1">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" thickTop="1" thickBot="1">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2" si="0">SUBTOTAL(3,E4:E54)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="16">
-        <f>(F55*1.25)+一覧_テクノロジ以外!F2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" thickTop="1">
+      <c r="F2" s="2">
+        <f t="shared" ref="F2" si="0">SUBTOTAL(3,F4:F54)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="16">
+        <f>(G55*1.25)+一覧_テクノロジ以外!G2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" thickTop="1">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -964,24 +994,25 @@
       <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3">
-        <v>44982</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1">
+      <c r="F3" s="3">
+        <v>45025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -995,22 +1026,23 @@
       <c r="D5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="4">
-        <f>COUNTIF($E5:$E5,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="4">
-        <f>COUNTIF($E5:$E5,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <f t="shared" ref="G5:G36" si="1">COUNTIF($F5:$F5,"○")</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H36" si="2">COUNTIF($F5:$F5,"×")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="11" t="str">
-        <f t="shared" ref="B6:B54" si="1">HYPERLINK("#問"&amp;A6&amp;"!A1","問"&amp;A6)</f>
+        <f t="shared" ref="B6:B54" si="3">HYPERLINK("#問"&amp;A6&amp;"!A1","問"&amp;A6)</f>
         <v>問2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1019,22 +1051,23 @@
       <c r="D6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="4">
-        <f>COUNTIF($E6:$E6,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="4">
-        <f>COUNTIF($E6:$E6,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問3</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1043,22 +1076,23 @@
       <c r="D7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="4">
-        <f>COUNTIF($E7:$E7,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="4">
-        <f>COUNTIF($E7:$E7,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問4</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1067,22 +1101,23 @@
       <c r="D8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="4">
-        <f>COUNTIF($E8:$E8,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="4">
-        <f>COUNTIF($E8:$E8,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問5</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1091,22 +1126,23 @@
       <c r="D9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="4">
-        <f>COUNTIF($E9:$E9,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="4">
-        <f>COUNTIF($E9:$E9,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <v>6</v>
       </c>
       <c r="B10" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問6</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1115,22 +1151,23 @@
       <c r="D10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="4">
-        <f>COUNTIF($E10:$E10,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="4">
-        <f>COUNTIF($E10:$E10,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問7</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1139,22 +1176,23 @@
       <c r="D11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="4">
-        <f>COUNTIF($E11:$E11,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="4">
-        <f>COUNTIF($E11:$E11,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <v>8</v>
       </c>
       <c r="B12" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問8</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1163,22 +1201,23 @@
       <c r="D12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="4">
-        <f>COUNTIF($E12:$E12,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="4">
-        <f>COUNTIF($E12:$E12,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問9</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1187,22 +1226,23 @@
       <c r="D13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="4">
-        <f>COUNTIF($E13:$E13,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="4">
-        <f>COUNTIF($E13:$E13,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <v>10</v>
       </c>
       <c r="B14" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問10</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1211,22 +1251,23 @@
       <c r="D14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="4">
-        <f>COUNTIF($E14:$E14,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="4">
-        <f>COUNTIF($E14:$E14,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6">
         <v>11</v>
       </c>
       <c r="B15" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問11</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1235,22 +1276,23 @@
       <c r="D15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="4">
-        <f>COUNTIF($E15:$E15,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="4">
-        <f>COUNTIF($E15:$E15,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
         <v>12</v>
       </c>
       <c r="B16" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問12</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1259,22 +1301,23 @@
       <c r="D16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="4">
-        <f>COUNTIF($E16:$E16,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="4">
-        <f>COUNTIF($E16:$E16,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="6">
         <v>13</v>
       </c>
       <c r="B17" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問13</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1283,22 +1326,23 @@
       <c r="D17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="4">
-        <f>COUNTIF($E17:$E17,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="4">
-        <f>COUNTIF($E17:$E17,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="6">
         <v>14</v>
       </c>
       <c r="B18" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問14</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1307,22 +1351,23 @@
       <c r="D18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="4">
-        <f>COUNTIF($E18:$E18,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="4">
-        <f>COUNTIF($E18:$E18,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="6">
         <v>15</v>
       </c>
       <c r="B19" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問15</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -1331,22 +1376,23 @@
       <c r="D19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="4">
-        <f>COUNTIF($E19:$E19,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="4">
-        <f>COUNTIF($E19:$E19,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="37.5">
       <c r="A20" s="6">
         <v>16</v>
       </c>
       <c r="B20" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問16</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1355,22 +1401,23 @@
       <c r="D20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="4">
-        <f>COUNTIF($E20:$E20,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="4">
-        <f>COUNTIF($E20:$E20,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="37.5">
       <c r="A21" s="6">
         <v>17</v>
       </c>
       <c r="B21" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問17</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1379,22 +1426,23 @@
       <c r="D21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="4">
-        <f>COUNTIF($E21:$E21,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="4">
-        <f>COUNTIF($E21:$E21,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="37.5">
       <c r="A22" s="6">
         <v>18</v>
       </c>
       <c r="B22" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問18</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1403,22 +1451,23 @@
       <c r="D22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="4">
-        <f>COUNTIF($E22:$E22,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="4">
-        <f>COUNTIF($E22:$E22,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="37.5">
       <c r="A23" s="6">
         <v>19</v>
       </c>
       <c r="B23" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問19</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -1427,22 +1476,23 @@
       <c r="D23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="4">
-        <f>COUNTIF($E23:$E23,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="4">
-        <f>COUNTIF($E23:$E23,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="6">
         <v>20</v>
       </c>
       <c r="B24" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問20</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1451,22 +1501,23 @@
       <c r="D24" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="4">
-        <f>COUNTIF($E24:$E24,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="4">
-        <f>COUNTIF($E24:$E24,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="6">
         <v>21</v>
       </c>
       <c r="B25" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問21</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1475,22 +1526,23 @@
       <c r="D25" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="4">
-        <f>COUNTIF($E25:$E25,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="4">
-        <f>COUNTIF($E25:$E25,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="6">
         <v>22</v>
       </c>
       <c r="B26" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問22</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -1499,22 +1551,23 @@
       <c r="D26" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="4">
-        <f>COUNTIF($E26:$E26,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="4">
-        <f>COUNTIF($E26:$E26,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="6">
         <v>23</v>
       </c>
       <c r="B27" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問23</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1523,22 +1576,23 @@
       <c r="D27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="4">
-        <f>COUNTIF($E27:$E27,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="4">
-        <f>COUNTIF($E27:$E27,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="37.5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="37.5">
       <c r="A28" s="6">
         <v>24</v>
       </c>
       <c r="B28" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問24</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1547,22 +1601,23 @@
       <c r="D28" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="4">
-        <f>COUNTIF($E28:$E28,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="4">
-        <f>COUNTIF($E28:$E28,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="6">
         <v>25</v>
       </c>
       <c r="B29" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問25</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -1571,22 +1626,23 @@
       <c r="D29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="4">
-        <f>COUNTIF($E29:$E29,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="8"/>
       <c r="G29" s="4">
-        <f>COUNTIF($E29:$E29,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="6">
         <v>26</v>
       </c>
       <c r="B30" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問26</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -1595,22 +1651,23 @@
       <c r="D30" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="4">
-        <f>COUNTIF($E30:$E30,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="4">
-        <f>COUNTIF($E30:$E30,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="6">
         <v>27</v>
       </c>
       <c r="B31" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問27</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -1619,22 +1676,23 @@
       <c r="D31" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="4">
-        <f>COUNTIF($E31:$E31,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="4">
-        <f>COUNTIF($E31:$E31,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="6">
         <v>28</v>
       </c>
       <c r="B32" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問28</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -1643,22 +1701,23 @@
       <c r="D32" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="4">
-        <f>COUNTIF($E32:$E32,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="4">
-        <f>COUNTIF($E32:$E32,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="37.5">
       <c r="A33" s="6">
         <v>29</v>
       </c>
       <c r="B33" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問29</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -1667,22 +1726,23 @@
       <c r="D33" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="4">
-        <f>COUNTIF($E33:$E33,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="4">
-        <f>COUNTIF($E33:$E33,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="6">
         <v>30</v>
       </c>
       <c r="B34" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問30</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -1691,22 +1751,23 @@
       <c r="D34" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="4">
-        <f>COUNTIF($E34:$E34,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="4">
-        <f>COUNTIF($E34:$E34,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="6">
         <v>31</v>
       </c>
       <c r="B35" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問31</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -1715,22 +1776,23 @@
       <c r="D35" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="4">
-        <f>COUNTIF($E35:$E35,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="4">
-        <f>COUNTIF($E35:$E35,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="6">
         <v>32</v>
       </c>
       <c r="B36" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問32</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1739,22 +1801,23 @@
       <c r="D36" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="4">
-        <f>COUNTIF($E36:$E36,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="8"/>
       <c r="G36" s="4">
-        <f>COUNTIF($E36:$E36,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="6">
         <v>33</v>
       </c>
       <c r="B37" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問33</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -1763,22 +1826,23 @@
       <c r="D37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="4">
-        <f>COUNTIF($E37:$E37,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="8"/>
       <c r="G37" s="4">
-        <f>COUNTIF($E37:$E37,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <f t="shared" ref="G37:G54" si="4">COUNTIF($F37:$F37,"○")</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" ref="H37:H54" si="5">COUNTIF($F37:$F37,"×")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="6">
         <v>34</v>
       </c>
       <c r="B38" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問34</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -1787,22 +1851,23 @@
       <c r="D38" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="4">
-        <f>COUNTIF($E38:$E38,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="4">
-        <f>COUNTIF($E38:$E38,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="6">
         <v>35</v>
       </c>
       <c r="B39" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問35</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -1811,22 +1876,23 @@
       <c r="D39" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="4">
-        <f>COUNTIF($E39:$E39,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="4">
-        <f>COUNTIF($E39:$E39,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="6">
         <v>36</v>
       </c>
       <c r="B40" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問36</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -1835,22 +1901,23 @@
       <c r="D40" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="4">
-        <f>COUNTIF($E40:$E40,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="4">
-        <f>COUNTIF($E40:$E40,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="6">
         <v>37</v>
       </c>
       <c r="B41" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問37</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -1859,22 +1926,23 @@
       <c r="D41" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="4">
-        <f>COUNTIF($E41:$E41,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="8"/>
       <c r="G41" s="4">
-        <f>COUNTIF($E41:$E41,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="6">
         <v>38</v>
       </c>
       <c r="B42" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問38</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -1883,22 +1951,23 @@
       <c r="D42" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="4">
-        <f>COUNTIF($E42:$E42,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="8"/>
       <c r="G42" s="4">
-        <f>COUNTIF($E42:$E42,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="6">
         <v>39</v>
       </c>
       <c r="B43" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問39</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -1907,22 +1976,23 @@
       <c r="D43" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="4">
-        <f>COUNTIF($E43:$E43,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="4">
-        <f>COUNTIF($E43:$E43,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="37.5">
       <c r="A44" s="6">
         <v>40</v>
       </c>
       <c r="B44" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問40</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -1931,22 +2001,23 @@
       <c r="D44" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="4">
-        <f>COUNTIF($E44:$E44,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="8"/>
       <c r="G44" s="4">
-        <f>COUNTIF($E44:$E44,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="6">
         <v>41</v>
       </c>
       <c r="B45" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問41</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -1955,22 +2026,23 @@
       <c r="D45" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="4">
-        <f>COUNTIF($E45:$E45,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="8"/>
       <c r="G45" s="4">
-        <f>COUNTIF($E45:$E45,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="6">
         <v>42</v>
       </c>
       <c r="B46" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問42</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -1979,22 +2051,23 @@
       <c r="D46" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="4">
-        <f>COUNTIF($E46:$E46,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="8"/>
       <c r="G46" s="4">
-        <f>COUNTIF($E46:$E46,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="37.5">
       <c r="A47" s="6">
         <v>43</v>
       </c>
       <c r="B47" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問43</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -2003,22 +2076,23 @@
       <c r="D47" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="4">
-        <f>COUNTIF($E47:$E47,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="8"/>
       <c r="G47" s="4">
-        <f>COUNTIF($E47:$E47,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="37.5">
       <c r="A48" s="6">
         <v>44</v>
       </c>
       <c r="B48" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問44</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -2027,22 +2101,23 @@
       <c r="D48" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="4">
-        <f>COUNTIF($E48:$E48,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="8"/>
       <c r="G48" s="4">
-        <f>COUNTIF($E48:$E48,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="37.5">
       <c r="A49" s="6">
         <v>45</v>
       </c>
       <c r="B49" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問45</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -2051,22 +2126,23 @@
       <c r="D49" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="4">
-        <f>COUNTIF($E49:$E49,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="8"/>
       <c r="G49" s="4">
-        <f>COUNTIF($E49:$E49,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="37.5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="37.5">
       <c r="A50" s="6">
         <v>46</v>
       </c>
       <c r="B50" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問46</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -2075,22 +2151,23 @@
       <c r="D50" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="4">
-        <f>COUNTIF($E50:$E50,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="8"/>
       <c r="G50" s="4">
-        <f>COUNTIF($E50:$E50,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="6">
         <v>47</v>
       </c>
       <c r="B51" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問47</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -2099,22 +2176,23 @@
       <c r="D51" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="4">
-        <f>COUNTIF($E51:$E51,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="8"/>
       <c r="G51" s="4">
-        <f>COUNTIF($E51:$E51,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="6">
         <v>48</v>
       </c>
       <c r="B52" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問48</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -2123,22 +2201,23 @@
       <c r="D52" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="4">
-        <f>COUNTIF($E52:$E52,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="8"/>
       <c r="G52" s="4">
-        <f>COUNTIF($E52:$E52,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="6">
         <v>49</v>
       </c>
       <c r="B53" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問49</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -2147,22 +2226,23 @@
       <c r="D53" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="4">
-        <f>COUNTIF($E53:$E53,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="8"/>
       <c r="G53" s="4">
-        <f>COUNTIF($E53:$E53,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="6">
         <v>50</v>
       </c>
       <c r="B54" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>問50</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -2171,57 +2251,61 @@
       <c r="D54" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="4">
-        <f>COUNTIF($E54:$E54,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="8"/>
       <c r="G54" s="4">
-        <f>COUNTIF($E54:$E54,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="E55" s="4"/>
-      <c r="F55" s="4">
-        <f>SUMIF($F$5:$F$54,"1")</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="F55" s="4"/>
       <c r="G55" s="4">
         <f>SUMIF($G$5:$G$54,"1")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="F56" s="4"/>
+      <c r="H55" s="4">
+        <f>SUMIF($H$5:$H$54,"1")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="F57" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="F58" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="F59" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:F56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A5:D54 H5:I54 F5:G59 E5:E55">
-    <cfRule type="expression" dxfId="3" priority="15">
-      <formula>COUNTIF($E5:$F5,"×")</formula>
+  <conditionalFormatting sqref="I5:J54 G5:H59 F5:F55 A5:E54">
+    <cfRule type="expression" dxfId="7" priority="15">
+      <formula>COUNTIF($F5:$G5,"×")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16">
-      <formula>COUNTIF($E5:$F5,"○")</formula>
+    <cfRule type="expression" dxfId="6" priority="16">
+      <formula>COUNTIF($F5:$G5,"○")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E54" xr:uid="{2AF8FA67-6214-4D90-9788-2338154872D7}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F54" xr:uid="{2AF8FA67-6214-4D90-9788-2338154872D7}">
       <formula1>"○,×"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E54" xr:uid="{7F8CD4AD-26CA-454C-BE36-C28F0D93BDCE}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2234,13 +2318,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3BBB94-6688-41CC-95B2-906868519F39}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2249,26 +2333,27 @@
     <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="48.125" customWidth="1"/>
     <col min="4" max="4" width="24" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
+    <col min="5" max="5" width="9.25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2" si="0">SUBTOTAL(3,E4:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>F36*1.25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" s="2">
+        <f t="shared" ref="F2" si="0">SUBTOTAL(3,F4:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>G36*1.25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -2278,24 +2363,25 @@
       <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3">
-        <v>44982</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1">
+      <c r="F3" s="3">
+        <v>45025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1">
       <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>51</v>
       </c>
@@ -2310,16 +2396,17 @@
         <v>27</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="4">
-        <f>COUNTIF($E5:$E5,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F5" s="8"/>
       <c r="G5" s="4">
-        <f>COUNTIF($E5:$E5,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <f t="shared" ref="G5:G35" si="2">COUNTIF($F5:$F5,"○")</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H35" si="3">COUNTIF($F5:$F5,"×")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>52</v>
       </c>
@@ -2334,16 +2421,17 @@
         <v>27</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="4">
-        <f>COUNTIF($E6:$E6,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="4">
-        <f>COUNTIF($E6:$E6,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>53</v>
       </c>
@@ -2358,16 +2446,17 @@
         <v>27</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="4">
-        <f>COUNTIF($E7:$E7,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="4">
-        <f>COUNTIF($E7:$E7,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>54</v>
       </c>
@@ -2382,16 +2471,17 @@
         <v>109</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="4">
-        <f>COUNTIF($E8:$E8,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="4">
-        <f>COUNTIF($E8:$E8,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>55</v>
       </c>
@@ -2406,16 +2496,17 @@
         <v>29</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="4">
-        <f>COUNTIF($E9:$E9,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="4">
-        <f>COUNTIF($E9:$E9,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="37.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="37.5">
       <c r="A10" s="6">
         <v>56</v>
       </c>
@@ -2430,16 +2521,17 @@
         <v>28</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="4">
-        <f>COUNTIF($E10:$E10,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="4">
-        <f>COUNTIF($E10:$E10,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>57</v>
       </c>
@@ -2454,16 +2546,17 @@
         <v>29</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="4">
-        <f>COUNTIF($E11:$E11,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="4">
-        <f>COUNTIF($E11:$E11,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <v>58</v>
       </c>
@@ -2478,16 +2571,17 @@
         <v>30</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="4">
-        <f>COUNTIF($E12:$E12,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="4">
-        <f>COUNTIF($E12:$E12,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>59</v>
       </c>
@@ -2502,16 +2596,17 @@
         <v>30</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="4">
-        <f>COUNTIF($E13:$E13,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="4">
-        <f>COUNTIF($E13:$E13,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <v>60</v>
       </c>
@@ -2526,33 +2621,35 @@
         <v>30</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="4">
-        <f>COUNTIF($E14:$E14,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F14" s="8"/>
       <c r="G14" s="4">
-        <f>COUNTIF($E14:$E14,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="15">
-        <f>COUNTIF($E15:$E15,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="15">
-        <f>COUNTIF($E15:$E15,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
         <v>61</v>
       </c>
@@ -2567,16 +2664,17 @@
         <v>33</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="4">
-        <f>COUNTIF($E16:$E16,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F16" s="8"/>
       <c r="G16" s="4">
-        <f>COUNTIF($E16:$E16,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="6">
         <v>62</v>
       </c>
@@ -2591,16 +2689,17 @@
         <v>118</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="4">
-        <f>COUNTIF($E17:$E17,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F17" s="8"/>
       <c r="G17" s="4">
-        <f>COUNTIF($E17:$E17,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="6">
         <v>63</v>
       </c>
@@ -2615,16 +2714,17 @@
         <v>120</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="4">
-        <f>COUNTIF($E18:$E18,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F18" s="8"/>
       <c r="G18" s="4">
-        <f>COUNTIF($E18:$E18,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="6">
         <v>64</v>
       </c>
@@ -2639,16 +2739,17 @@
         <v>122</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="4">
-        <f>COUNTIF($E19:$E19,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F19" s="8"/>
       <c r="G19" s="4">
-        <f>COUNTIF($E19:$E19,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="6">
         <v>65</v>
       </c>
@@ -2663,21 +2764,22 @@
         <v>124</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="4">
-        <f>COUNTIF($E20:$E20,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F20" s="8"/>
       <c r="G20" s="4">
-        <f>COUNTIF($E20:$E20,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="6">
         <v>66</v>
       </c>
       <c r="B21" s="11" t="str">
-        <f t="shared" ref="B21:B35" si="2">HYPERLINK("#問"&amp;A21&amp;"!A1","問"&amp;A21)</f>
+        <f t="shared" ref="B21:B35" si="4">HYPERLINK("#問"&amp;A21&amp;"!A1","問"&amp;A21)</f>
         <v>問66</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -2687,21 +2789,22 @@
         <v>124</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="4">
-        <f>COUNTIF($E21:$E21,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F21" s="8"/>
       <c r="G21" s="4">
-        <f>COUNTIF($E21:$E21,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="6">
         <v>67</v>
       </c>
       <c r="B22" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>問67</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -2711,21 +2814,22 @@
         <v>35</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="4">
-        <f>COUNTIF($E22:$E22,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F22" s="8"/>
       <c r="G22" s="4">
-        <f>COUNTIF($E22:$E22,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="6">
         <v>68</v>
       </c>
       <c r="B23" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>問68</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -2735,21 +2839,22 @@
         <v>35</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="4">
-        <f>COUNTIF($E23:$E23,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F23" s="8"/>
       <c r="G23" s="4">
-        <f>COUNTIF($E23:$E23,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="6">
         <v>69</v>
       </c>
       <c r="B24" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>問69</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -2759,21 +2864,22 @@
         <v>36</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="4">
-        <f>COUNTIF($E24:$E24,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F24" s="8"/>
       <c r="G24" s="4">
-        <f>COUNTIF($E24:$E24,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="6">
         <v>70</v>
       </c>
       <c r="B25" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>問70</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2783,21 +2889,22 @@
         <v>34</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="4">
-        <f>COUNTIF($E25:$E25,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F25" s="8"/>
       <c r="G25" s="4">
-        <f>COUNTIF($E25:$E25,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="6">
         <v>71</v>
       </c>
       <c r="B26" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>問71</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2807,21 +2914,22 @@
         <v>38</v>
       </c>
       <c r="E26" s="8"/>
-      <c r="F26" s="4">
-        <f>COUNTIF($E26:$E26,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F26" s="8"/>
       <c r="G26" s="4">
-        <f>COUNTIF($E26:$E26,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="6">
         <v>72</v>
       </c>
       <c r="B27" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>問72</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -2831,21 +2939,22 @@
         <v>132</v>
       </c>
       <c r="E27" s="8"/>
-      <c r="F27" s="4">
-        <f>COUNTIF($E27:$E27,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F27" s="8"/>
       <c r="G27" s="4">
-        <f>COUNTIF($E27:$E27,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="6">
         <v>73</v>
       </c>
       <c r="B28" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>問73</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -2855,21 +2964,22 @@
         <v>132</v>
       </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="4">
-        <f>COUNTIF($E28:$E28,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F28" s="8"/>
       <c r="G28" s="4">
-        <f>COUNTIF($E28:$E28,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="6">
         <v>74</v>
       </c>
       <c r="B29" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>問74</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -2879,21 +2989,22 @@
         <v>37</v>
       </c>
       <c r="E29" s="8"/>
-      <c r="F29" s="4">
-        <f>COUNTIF($E29:$E29,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F29" s="8"/>
       <c r="G29" s="4">
-        <f>COUNTIF($E29:$E29,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="2" customFormat="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1">
       <c r="A30" s="6">
         <v>75</v>
       </c>
       <c r="B30" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>問75</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -2903,21 +3014,22 @@
         <v>32</v>
       </c>
       <c r="E30" s="8"/>
-      <c r="F30" s="4">
-        <f>COUNTIF($E30:$E30,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F30" s="8"/>
       <c r="G30" s="4">
-        <f>COUNTIF($E30:$E30,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="2" customFormat="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1">
       <c r="A31" s="6">
         <v>76</v>
       </c>
       <c r="B31" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>問76</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -2927,21 +3039,22 @@
         <v>39</v>
       </c>
       <c r="E31" s="8"/>
-      <c r="F31" s="4">
-        <f>COUNTIF($E31:$E31,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F31" s="8"/>
       <c r="G31" s="4">
-        <f>COUNTIF($E31:$E31,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="2" customFormat="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1">
       <c r="A32" s="6">
         <v>77</v>
       </c>
       <c r="B32" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>問77</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -2951,21 +3064,22 @@
         <v>40</v>
       </c>
       <c r="E32" s="8"/>
-      <c r="F32" s="4">
-        <f>COUNTIF($E32:$E32,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F32" s="8"/>
       <c r="G32" s="4">
-        <f>COUNTIF($E32:$E32,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1">
       <c r="A33" s="6">
         <v>78</v>
       </c>
       <c r="B33" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>問78</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -2975,21 +3089,22 @@
         <v>139</v>
       </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="4">
-        <f>COUNTIF($E33:$E33,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F33" s="8"/>
       <c r="G33" s="4">
-        <f>COUNTIF($E33:$E33,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1">
       <c r="A34" s="6">
         <v>79</v>
       </c>
       <c r="B34" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>問79</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -2999,21 +3114,22 @@
         <v>41</v>
       </c>
       <c r="E34" s="8"/>
-      <c r="F34" s="4">
-        <f>COUNTIF($E34:$E34,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F34" s="8"/>
       <c r="G34" s="4">
-        <f>COUNTIF($E34:$E34,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" ht="37.5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="2" customFormat="1" ht="37.5">
       <c r="A35" s="6">
         <v>80</v>
       </c>
       <c r="B35" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>問80</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -3023,54 +3139,71 @@
         <v>42</v>
       </c>
       <c r="E35" s="8"/>
-      <c r="F35" s="4">
-        <f>COUNTIF($E35:$E35,"○")</f>
-        <v>0</v>
-      </c>
+      <c r="F35" s="8"/>
       <c r="G35" s="4">
-        <f>COUNTIF($E35:$E35,"×")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="F36" s="4">
-        <f>SUMIF($F$5:$F$35,"1")</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="G36" s="4">
         <f>SUMIF($G$5:$G$35,"1")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="F37" s="4"/>
+      <c r="H36" s="4">
+        <f>SUMIF($H$5:$H$35,"1")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="F38" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="F39" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="F40" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:F37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H5:J35 F5:G40 A5:E35">
-    <cfRule type="expression" dxfId="1" priority="19">
-      <formula>COUNTIF($E5:$G5,"×")</formula>
+  <conditionalFormatting sqref="I5:K35 G5:H40 A15:F15 A5:D14 F5:F14 A16:D35 F16:F35">
+    <cfRule type="expression" dxfId="5" priority="23">
+      <formula>COUNTIF($F5:$H5,"×")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="20">
-      <formula>COUNTIF($E5:$G5,"○")</formula>
+    <cfRule type="expression" dxfId="4" priority="24">
+      <formula>COUNTIF($F5:$H5,"○")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E14">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>COUNTIF($F5:$G5,"×")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>COUNTIF($F5:$G5,"○")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E35">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>COUNTIF($F16:$G16,"×")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>COUNTIF($F16:$G16,"○")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E14 E16:E35" xr:uid="{52A429B3-3028-4215-904A-C437005ED8C7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:F14 E16:F35" xr:uid="{52A429B3-3028-4215-904A-C437005ED8C7}">
       <formula1>"○,×"</formula1>
     </dataValidation>
   </dataValidations>
